--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Efnb2-Epha4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Efnb2-Epha4.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>40.497736</v>
+        <v>53.0169945</v>
       </c>
       <c r="H2">
-        <v>80.99547200000001</v>
+        <v>106.033989</v>
       </c>
       <c r="I2">
-        <v>0.4338277436889532</v>
+        <v>0.7442421144210264</v>
       </c>
       <c r="J2">
-        <v>0.3549025979779167</v>
+        <v>0.7041603619966643</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.4223555</v>
+        <v>6.9192795</v>
       </c>
       <c r="N2">
-        <v>20.844711</v>
+        <v>13.838559</v>
       </c>
       <c r="O2">
-        <v>0.5134583541362048</v>
+        <v>0.6281451873364243</v>
       </c>
       <c r="P2">
-        <v>0.4269921487868165</v>
+        <v>0.5718408792853329</v>
       </c>
       <c r="Q2">
-        <v>422.0818015371481</v>
+        <v>366.8394031954628</v>
       </c>
       <c r="R2">
-        <v>1688.327206148592</v>
+        <v>1467.357612781851</v>
       </c>
       <c r="S2">
-        <v>0.2227524792531532</v>
+        <v>0.4674921023866522</v>
       </c>
       <c r="T2">
-        <v>0.1515406229206143</v>
+        <v>0.4026676805620508</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>40.497736</v>
+        <v>53.0169945</v>
       </c>
       <c r="H3">
-        <v>80.99547200000001</v>
+        <v>106.033989</v>
       </c>
       <c r="I3">
-        <v>0.4338277436889532</v>
+        <v>0.7442421144210264</v>
       </c>
       <c r="J3">
-        <v>0.3549025979779167</v>
+        <v>0.7041603619966643</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>6.248004</v>
       </c>
       <c r="O3">
-        <v>0.1026028409309336</v>
+        <v>0.1890685122662809</v>
       </c>
       <c r="P3">
-        <v>0.1279868381762944</v>
+        <v>0.2581818021036928</v>
       </c>
       <c r="Q3">
-        <v>84.343338839648</v>
+        <v>110.416797901326</v>
       </c>
       <c r="R3">
-        <v>506.060033037888</v>
+        <v>662.5007874079561</v>
       </c>
       <c r="S3">
-        <v>0.04451195897714351</v>
+        <v>0.1407127493394947</v>
       </c>
       <c r="T3">
-        <v>0.0454228613757461</v>
+        <v>0.1818013912302875</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>40.497736</v>
+        <v>53.0169945</v>
       </c>
       <c r="H4">
-        <v>80.99547200000001</v>
+        <v>106.033989</v>
       </c>
       <c r="I4">
-        <v>0.4338277436889532</v>
+        <v>0.7442421144210264</v>
       </c>
       <c r="J4">
-        <v>0.3549025979779167</v>
+        <v>0.7041603619966643</v>
       </c>
       <c r="K4">
         <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>1.6551325</v>
+        <v>0.07724199999999999</v>
       </c>
       <c r="N4">
-        <v>3.310265</v>
+        <v>0.231726</v>
       </c>
       <c r="O4">
-        <v>0.0815402630746324</v>
+        <v>0.007012173819577614</v>
       </c>
       <c r="P4">
-        <v>0.0678089115941109</v>
+        <v>0.009575447818900294</v>
       </c>
       <c r="Q4">
-        <v>67.02911903002001</v>
+        <v>4.095138689169</v>
       </c>
       <c r="R4">
-        <v>268.1164761200801</v>
+        <v>24.570832135014</v>
       </c>
       <c r="S4">
-        <v>0.03537442834947144</v>
+        <v>0.005218755070170208</v>
       </c>
       <c r="T4">
-        <v>0.02406555889080483</v>
+        <v>0.006742650802437001</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>40.497736</v>
+        <v>53.0169945</v>
       </c>
       <c r="H5">
-        <v>80.99547200000001</v>
+        <v>106.033989</v>
       </c>
       <c r="I5">
-        <v>0.4338277436889532</v>
+        <v>0.7442421144210264</v>
       </c>
       <c r="J5">
-        <v>0.3549025979779167</v>
+        <v>0.7041603619966643</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.111548333333334</v>
+        <v>1.9269465</v>
       </c>
       <c r="N5">
-        <v>18.334645</v>
+        <v>3.853893</v>
       </c>
       <c r="O5">
-        <v>0.3010860211453351</v>
+        <v>0.1749318220531151</v>
       </c>
       <c r="P5">
-        <v>0.3755748624096281</v>
+        <v>0.1592516649884999</v>
       </c>
       <c r="Q5">
-        <v>247.5038709545734</v>
+        <v>102.1609119922943</v>
       </c>
       <c r="R5">
-        <v>1485.02322572744</v>
+        <v>408.643647969177</v>
       </c>
       <c r="S5">
-        <v>0.1306194692097652</v>
+        <v>0.1301916291243331</v>
       </c>
       <c r="T5">
-        <v>0.1332924944043756</v>
+        <v>0.1121387100668736</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>40.497736</v>
+        <v>53.0169945</v>
       </c>
       <c r="H6">
-        <v>80.99547200000001</v>
+        <v>106.033989</v>
       </c>
       <c r="I6">
-        <v>0.4338277436889532</v>
+        <v>0.7442421144210264</v>
       </c>
       <c r="J6">
-        <v>0.3549025979779167</v>
+        <v>0.7041603619966643</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -809,28 +809,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.026642</v>
+        <v>0.009278333333333333</v>
       </c>
       <c r="N6">
-        <v>0.079926</v>
+        <v>0.027835</v>
       </c>
       <c r="O6">
-        <v>0.001312520712894198</v>
+        <v>0.0008423045246020856</v>
       </c>
       <c r="P6">
-        <v>0.001637239033150188</v>
+        <v>0.001150205803574436</v>
       </c>
       <c r="Q6">
-        <v>1.078940682512</v>
+        <v>0.4919093473025</v>
       </c>
       <c r="R6">
-        <v>6.473644095072</v>
+        <v>2.951456083815</v>
       </c>
       <c r="S6">
-        <v>0.0005694078994199064</v>
+        <v>0.0006268785003762537</v>
       </c>
       <c r="T6">
-        <v>0.0005810603863758542</v>
+        <v>0.0008099293350156387</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,10 +859,10 @@
         <v>19.394515</v>
       </c>
       <c r="I7">
-        <v>0.06925390168635236</v>
+        <v>0.09075212572810222</v>
       </c>
       <c r="J7">
-        <v>0.08498208097388053</v>
+        <v>0.1287968964663749</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.4223555</v>
+        <v>6.9192795</v>
       </c>
       <c r="N7">
-        <v>20.844711</v>
+        <v>13.838559</v>
       </c>
       <c r="O7">
-        <v>0.5134583541362048</v>
+        <v>0.6281451873364243</v>
       </c>
       <c r="P7">
-        <v>0.4269921487868165</v>
+        <v>0.5718408792853329</v>
       </c>
       <c r="Q7">
-        <v>67.37884336002749</v>
+        <v>44.73202335064749</v>
       </c>
       <c r="R7">
-        <v>404.273060160165</v>
+        <v>268.392140103885</v>
       </c>
       <c r="S7">
-        <v>0.03555899437738502</v>
+        <v>0.0570055110166575</v>
       </c>
       <c r="T7">
-        <v>0.03628668136341248</v>
+        <v>0.0736513305245538</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>19.394515</v>
       </c>
       <c r="I8">
-        <v>0.06925390168635236</v>
+        <v>0.09075212572810222</v>
       </c>
       <c r="J8">
-        <v>0.08498208097388053</v>
+        <v>0.1287968964663749</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -939,10 +939,10 @@
         <v>6.248004</v>
       </c>
       <c r="O8">
-        <v>0.1026028409309336</v>
+        <v>0.1890685122662809</v>
       </c>
       <c r="P8">
-        <v>0.1279868381762944</v>
+        <v>0.2581818021036928</v>
       </c>
       <c r="Q8">
         <v>13.46411192200667</v>
@@ -951,10 +951,10 @@
         <v>121.17700729806</v>
       </c>
       <c r="S8">
-        <v>0.007105647058571326</v>
+        <v>0.01715836939641477</v>
       </c>
       <c r="T8">
-        <v>0.0108765878454888</v>
+        <v>0.03325301483505141</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,40 +983,40 @@
         <v>19.394515</v>
       </c>
       <c r="I9">
-        <v>0.06925390168635236</v>
+        <v>0.09075212572810222</v>
       </c>
       <c r="J9">
-        <v>0.08498208097388053</v>
+        <v>0.1287968964663749</v>
       </c>
       <c r="K9">
         <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>1.6551325</v>
+        <v>0.07724199999999999</v>
       </c>
       <c r="N9">
-        <v>3.310265</v>
+        <v>0.231726</v>
       </c>
       <c r="O9">
-        <v>0.0815402630746324</v>
+        <v>0.007012173819577614</v>
       </c>
       <c r="P9">
-        <v>0.0678089115941109</v>
+        <v>0.009575447818900294</v>
       </c>
       <c r="Q9">
-        <v>10.70016403274583</v>
+        <v>0.4993570425433332</v>
       </c>
       <c r="R9">
-        <v>64.20098419647501</v>
+        <v>4.494213382889999</v>
       </c>
       <c r="S9">
-        <v>0.0056469813624499</v>
+        <v>0.0006363696801016144</v>
       </c>
       <c r="T9">
-        <v>0.005762542415841439</v>
+        <v>0.001233287961350077</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,40 +1045,40 @@
         <v>19.394515</v>
       </c>
       <c r="I10">
-        <v>0.06925390168635236</v>
+        <v>0.09075212572810222</v>
       </c>
       <c r="J10">
-        <v>0.08498208097388053</v>
+        <v>0.1287968964663749</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.111548333333334</v>
+        <v>1.9269465</v>
       </c>
       <c r="N10">
-        <v>18.334645</v>
+        <v>3.853893</v>
       </c>
       <c r="O10">
-        <v>0.3010860211453351</v>
+        <v>0.1749318220531151</v>
       </c>
       <c r="P10">
-        <v>0.3755748624096281</v>
+        <v>0.1592516649884999</v>
       </c>
       <c r="Q10">
-        <v>39.51017194135278</v>
+        <v>12.4573975994825</v>
       </c>
       <c r="R10">
-        <v>355.591547472175</v>
+        <v>74.744385596895</v>
       </c>
       <c r="S10">
-        <v>0.02085138170753404</v>
+        <v>0.01587543470881031</v>
       </c>
       <c r="T10">
-        <v>0.03191713336904906</v>
+        <v>0.02051112020762164</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>19.394515</v>
       </c>
       <c r="I11">
-        <v>0.06925390168635236</v>
+        <v>0.09075212572810222</v>
       </c>
       <c r="J11">
-        <v>0.08498208097388053</v>
+        <v>0.1287968964663749</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,28 +1119,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.026642</v>
+        <v>0.009278333333333333</v>
       </c>
       <c r="N11">
-        <v>0.079926</v>
+        <v>0.027835</v>
       </c>
       <c r="O11">
-        <v>0.001312520712894198</v>
+        <v>0.0008423045246020856</v>
       </c>
       <c r="P11">
-        <v>0.001637239033150188</v>
+        <v>0.001150205803574436</v>
       </c>
       <c r="Q11">
-        <v>0.1722362228766667</v>
+        <v>0.05998292500277777</v>
       </c>
       <c r="R11">
-        <v>1.55012600589</v>
+        <v>0.539846325025</v>
       </c>
       <c r="S11">
-        <v>9.08971804120759E-05</v>
+        <v>7.644092611803784E-05</v>
       </c>
       <c r="T11">
-        <v>0.0001391359800887671</v>
+        <v>0.0001481429377980001</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.7642823333333334</v>
+        <v>0.6789063333333333</v>
       </c>
       <c r="H12">
-        <v>2.292847</v>
+        <v>2.036719</v>
       </c>
       <c r="I12">
-        <v>0.008187294228282994</v>
+        <v>0.00953035323444874</v>
       </c>
       <c r="J12">
-        <v>0.01004670183372562</v>
+        <v>0.01352563269430035</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.4223555</v>
+        <v>6.9192795</v>
       </c>
       <c r="N12">
-        <v>20.844711</v>
+        <v>13.838559</v>
       </c>
       <c r="O12">
-        <v>0.5134583541362048</v>
+        <v>0.6281451873364243</v>
       </c>
       <c r="P12">
-        <v>0.4269921487868165</v>
+        <v>0.5718408792853329</v>
       </c>
       <c r="Q12">
-        <v>7.9656221803695</v>
+        <v>4.6975426746535</v>
       </c>
       <c r="R12">
-        <v>47.793733082217</v>
+        <v>28.185256047921</v>
       </c>
       <c r="S12">
-        <v>0.004203834619283035</v>
+        <v>0.005986445517835101</v>
       </c>
       <c r="T12">
-        <v>0.004289862804202953</v>
+        <v>0.00773450969279916</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.7642823333333334</v>
+        <v>0.6789063333333333</v>
       </c>
       <c r="H13">
-        <v>2.292847</v>
+        <v>2.036719</v>
       </c>
       <c r="I13">
-        <v>0.008187294228282994</v>
+        <v>0.00953035323444874</v>
       </c>
       <c r="J13">
-        <v>0.01004670183372562</v>
+        <v>0.01352563269430035</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1249,22 +1249,22 @@
         <v>6.248004</v>
       </c>
       <c r="O13">
-        <v>0.1026028409309336</v>
+        <v>0.1890685122662809</v>
       </c>
       <c r="P13">
-        <v>0.1279868381762944</v>
+        <v>0.2581818021036928</v>
       </c>
       <c r="Q13">
-        <v>1.591746358598667</v>
+        <v>1.413936495430667</v>
       </c>
       <c r="R13">
-        <v>14.325717227388</v>
+        <v>12.725428458876</v>
       </c>
       <c r="S13">
-        <v>0.000840039647359271</v>
+        <v>0.001801889707409362</v>
       </c>
       <c r="T13">
-        <v>0.001285845601798522</v>
+        <v>0.003492072223607091</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,7 +1278,7 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.7642823333333334</v>
+        <v>0.6789063333333333</v>
       </c>
       <c r="H14">
-        <v>2.292847</v>
+        <v>2.036719</v>
       </c>
       <c r="I14">
-        <v>0.008187294228282994</v>
+        <v>0.00953035323444874</v>
       </c>
       <c r="J14">
-        <v>0.01004670183372562</v>
+        <v>0.01352563269430035</v>
       </c>
       <c r="K14">
         <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>1.6551325</v>
+        <v>0.07724199999999999</v>
       </c>
       <c r="N14">
-        <v>3.310265</v>
+        <v>0.231726</v>
       </c>
       <c r="O14">
-        <v>0.0815402630746324</v>
+        <v>0.007012173819577614</v>
       </c>
       <c r="P14">
-        <v>0.0678089115941109</v>
+        <v>0.009575447818900294</v>
       </c>
       <c r="Q14">
-        <v>1.264988529075834</v>
+        <v>0.05244008299933332</v>
       </c>
       <c r="R14">
-        <v>7.589931174455001</v>
+        <v>0.4719607469939999</v>
       </c>
       <c r="S14">
-        <v>0.0006675941252436148</v>
+        <v>6.682849344192829E-05</v>
       </c>
       <c r="T14">
-        <v>0.0006812559164554926</v>
+        <v>0.0001295139900818848</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,46 +1349,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.7642823333333334</v>
+        <v>0.6789063333333333</v>
       </c>
       <c r="H15">
-        <v>2.292847</v>
+        <v>2.036719</v>
       </c>
       <c r="I15">
-        <v>0.008187294228282994</v>
+        <v>0.00953035323444874</v>
       </c>
       <c r="J15">
-        <v>0.01004670183372562</v>
+        <v>0.01352563269430035</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>6.111548333333334</v>
+        <v>1.9269465</v>
       </c>
       <c r="N15">
-        <v>18.334645</v>
+        <v>3.853893</v>
       </c>
       <c r="O15">
-        <v>0.3010860211453351</v>
+        <v>0.1749318220531151</v>
       </c>
       <c r="P15">
-        <v>0.3755748624096281</v>
+        <v>0.1592516649884999</v>
       </c>
       <c r="Q15">
-        <v>4.670948420479445</v>
+        <v>1.3082161828445</v>
       </c>
       <c r="R15">
-        <v>42.03853578431501</v>
+        <v>7.849297097067</v>
       </c>
       <c r="S15">
-        <v>0.002465079843139893</v>
+        <v>0.001667162056111917</v>
       </c>
       <c r="T15">
-        <v>0.003773288658872059</v>
+        <v>0.002153979526590221</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.7642823333333334</v>
+        <v>0.6789063333333333</v>
       </c>
       <c r="H16">
-        <v>2.292847</v>
+        <v>2.036719</v>
       </c>
       <c r="I16">
-        <v>0.008187294228282994</v>
+        <v>0.00953035323444874</v>
       </c>
       <c r="J16">
-        <v>0.01004670183372562</v>
+        <v>0.01352563269430035</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1429,28 +1429,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.026642</v>
+        <v>0.009278333333333333</v>
       </c>
       <c r="N16">
-        <v>0.079926</v>
+        <v>0.027835</v>
       </c>
       <c r="O16">
-        <v>0.001312520712894198</v>
+        <v>0.0008423045246020856</v>
       </c>
       <c r="P16">
-        <v>0.001637239033150188</v>
+        <v>0.001150205803574436</v>
       </c>
       <c r="Q16">
-        <v>0.02036200992466667</v>
+        <v>0.006299119262777777</v>
       </c>
       <c r="R16">
-        <v>0.183258089322</v>
+        <v>0.05669207336499999</v>
       </c>
       <c r="S16">
-        <v>1.074599325718055E-05</v>
+        <v>8.027459650432296E-06</v>
       </c>
       <c r="T16">
-        <v>1.644885239659716E-05</v>
+        <v>1.555726122200039E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>11.332808</v>
+        <v>10.1095025</v>
       </c>
       <c r="H17">
-        <v>22.665616</v>
+        <v>20.219005</v>
       </c>
       <c r="I17">
-        <v>0.1214015154896589</v>
+        <v>0.1419152026119597</v>
       </c>
       <c r="J17">
-        <v>0.09931525558823628</v>
+        <v>0.1342722462324073</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>10.4223555</v>
+        <v>6.9192795</v>
       </c>
       <c r="N17">
-        <v>20.844711</v>
+        <v>13.838559</v>
       </c>
       <c r="O17">
-        <v>0.5134583541362048</v>
+        <v>0.6281451873364243</v>
       </c>
       <c r="P17">
-        <v>0.4269921487868165</v>
+        <v>0.5718408792853329</v>
       </c>
       <c r="Q17">
-        <v>118.114553789244</v>
+        <v>69.95047340344875</v>
       </c>
       <c r="R17">
-        <v>472.458215156976</v>
+        <v>279.801893613795</v>
       </c>
       <c r="S17">
-        <v>0.06233462233296125</v>
+        <v>0.08914335153057602</v>
       </c>
       <c r="T17">
-        <v>0.04240683439093289</v>
+        <v>0.07678235934915652</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>11.332808</v>
+        <v>10.1095025</v>
       </c>
       <c r="H18">
-        <v>22.665616</v>
+        <v>20.219005</v>
       </c>
       <c r="I18">
-        <v>0.1214015154896589</v>
+        <v>0.1419152026119597</v>
       </c>
       <c r="J18">
-        <v>0.09931525558823628</v>
+        <v>0.1342722462324073</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1559,22 +1559,22 @@
         <v>6.248004</v>
       </c>
       <c r="O18">
-        <v>0.1026028409309336</v>
+        <v>0.1890685122662809</v>
       </c>
       <c r="P18">
-        <v>0.1279868381762944</v>
+        <v>0.2581818021036928</v>
       </c>
       <c r="Q18">
-        <v>23.602476571744</v>
+        <v>21.05473735267</v>
       </c>
       <c r="R18">
-        <v>141.614859430464</v>
+        <v>126.32842411602</v>
       </c>
       <c r="S18">
-        <v>0.01245614038255975</v>
+        <v>0.02683169622581104</v>
       </c>
       <c r="T18">
-        <v>0.01271104554540892</v>
+        <v>0.03466665050479369</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,7 +1588,7 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>11.332808</v>
+        <v>10.1095025</v>
       </c>
       <c r="H19">
-        <v>22.665616</v>
+        <v>20.219005</v>
       </c>
       <c r="I19">
-        <v>0.1214015154896589</v>
+        <v>0.1419152026119597</v>
       </c>
       <c r="J19">
-        <v>0.09931525558823628</v>
+        <v>0.1342722462324073</v>
       </c>
       <c r="K19">
         <v>2</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>1.6551325</v>
+        <v>0.07724199999999999</v>
       </c>
       <c r="N19">
-        <v>3.310265</v>
+        <v>0.231726</v>
       </c>
       <c r="O19">
-        <v>0.0815402630746324</v>
+        <v>0.007012173819577614</v>
       </c>
       <c r="P19">
-        <v>0.0678089115941109</v>
+        <v>0.009575447818900294</v>
       </c>
       <c r="Q19">
-        <v>18.75729883706</v>
+        <v>0.7808781921049999</v>
       </c>
       <c r="R19">
-        <v>75.02919534824001</v>
+        <v>4.685269152629999</v>
       </c>
       <c r="S19">
-        <v>0.00989911151068585</v>
+        <v>0.0009951340683556362</v>
       </c>
       <c r="T19">
-        <v>0.006734459386129242</v>
+        <v>0.001285716887324948</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,7 +1650,7 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E20">
         <v>2</v>
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>11.332808</v>
+        <v>10.1095025</v>
       </c>
       <c r="H20">
-        <v>22.665616</v>
+        <v>20.219005</v>
       </c>
       <c r="I20">
-        <v>0.1214015154896589</v>
+        <v>0.1419152026119597</v>
       </c>
       <c r="J20">
-        <v>0.09931525558823628</v>
+        <v>0.1342722462324073</v>
       </c>
       <c r="K20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>6.111548333333334</v>
+        <v>1.9269465</v>
       </c>
       <c r="N20">
-        <v>18.334645</v>
+        <v>3.853893</v>
       </c>
       <c r="O20">
-        <v>0.3010860211453351</v>
+        <v>0.1749318220531151</v>
       </c>
       <c r="P20">
-        <v>0.3755748624096281</v>
+        <v>0.1592516649884999</v>
       </c>
       <c r="Q20">
-        <v>69.26100384438668</v>
+        <v>19.48047045911625</v>
       </c>
       <c r="R20">
-        <v>415.56602306632</v>
+        <v>77.921881836465</v>
       </c>
       <c r="S20">
-        <v>0.03655229925979517</v>
+        <v>0.0248254849699471</v>
       </c>
       <c r="T20">
-        <v>0.03730031345272888</v>
+        <v>0.02138307877425669</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>11.332808</v>
+        <v>10.1095025</v>
       </c>
       <c r="H21">
-        <v>22.665616</v>
+        <v>20.219005</v>
       </c>
       <c r="I21">
-        <v>0.1214015154896589</v>
+        <v>0.1419152026119597</v>
       </c>
       <c r="J21">
-        <v>0.09931525558823628</v>
+        <v>0.1342722462324073</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1739,28 +1739,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.026642</v>
+        <v>0.009278333333333333</v>
       </c>
       <c r="N21">
-        <v>0.079926</v>
+        <v>0.027835</v>
       </c>
       <c r="O21">
-        <v>0.001312520712894198</v>
+        <v>0.0008423045246020856</v>
       </c>
       <c r="P21">
-        <v>0.001637239033150188</v>
+        <v>0.001150205803574436</v>
       </c>
       <c r="Q21">
-        <v>0.301928670736</v>
+        <v>0.09379933402916665</v>
       </c>
       <c r="R21">
-        <v>1.811572024416</v>
+        <v>0.562796004175</v>
       </c>
       <c r="S21">
-        <v>0.0001593420036569232</v>
+        <v>0.0001195358172698754</v>
       </c>
       <c r="T21">
-        <v>0.0001626028130363478</v>
+        <v>0.0001544407168754905</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>33.754358</v>
+        <v>0.5288903333333334</v>
       </c>
       <c r="H22">
-        <v>101.263074</v>
+        <v>1.586671</v>
       </c>
       <c r="I22">
-        <v>0.3615900150766246</v>
+        <v>0.007424458207958987</v>
       </c>
       <c r="J22">
-        <v>0.4437103353361534</v>
+        <v>0.01053691213795238</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>10.4223555</v>
+        <v>6.9192795</v>
       </c>
       <c r="N22">
-        <v>20.844711</v>
+        <v>13.838559</v>
       </c>
       <c r="O22">
-        <v>0.5134583541362048</v>
+        <v>0.6281451873364243</v>
       </c>
       <c r="P22">
-        <v>0.4269921487868165</v>
+        <v>0.5718408792853329</v>
       </c>
       <c r="Q22">
-        <v>351.7999187502689</v>
+        <v>3.6595400411815</v>
       </c>
       <c r="R22">
-        <v>2110.799512501614</v>
+        <v>21.957240247089</v>
       </c>
       <c r="S22">
-        <v>0.1856614140133292</v>
+        <v>0.004663637691909851</v>
       </c>
       <c r="T22">
-        <v>0.189460829524103</v>
+        <v>0.006025437101918988</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>33.754358</v>
+        <v>0.5288903333333334</v>
       </c>
       <c r="H23">
-        <v>101.263074</v>
+        <v>1.586671</v>
       </c>
       <c r="I23">
-        <v>0.3615900150766246</v>
+        <v>0.007424458207958987</v>
       </c>
       <c r="J23">
-        <v>0.4437103353361534</v>
+        <v>0.01053691213795238</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1869,22 +1869,22 @@
         <v>6.248004</v>
       </c>
       <c r="O23">
-        <v>0.1026028409309336</v>
+        <v>0.1890685122662809</v>
       </c>
       <c r="P23">
-        <v>0.1279868381762944</v>
+        <v>0.2581818021036928</v>
       </c>
       <c r="Q23">
-        <v>70.29912126714399</v>
+        <v>1.101502972742667</v>
       </c>
       <c r="R23">
-        <v>632.6920914042959</v>
+        <v>9.913526754684</v>
       </c>
       <c r="S23">
-        <v>0.03710016279912081</v>
+        <v>0.001403731267761984</v>
       </c>
       <c r="T23">
-        <v>0.0567890828858176</v>
+        <v>0.002720438964384821</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,7 +1898,7 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E24">
         <v>3</v>
@@ -1907,46 +1907,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>33.754358</v>
+        <v>0.5288903333333334</v>
       </c>
       <c r="H24">
-        <v>101.263074</v>
+        <v>1.586671</v>
       </c>
       <c r="I24">
-        <v>0.3615900150766246</v>
+        <v>0.007424458207958987</v>
       </c>
       <c r="J24">
-        <v>0.4437103353361534</v>
+        <v>0.01053691213795238</v>
       </c>
       <c r="K24">
         <v>2</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>1.6551325</v>
+        <v>0.07724199999999999</v>
       </c>
       <c r="N24">
-        <v>3.310265</v>
+        <v>0.231726</v>
       </c>
       <c r="O24">
-        <v>0.0815402630746324</v>
+        <v>0.007012173819577614</v>
       </c>
       <c r="P24">
-        <v>0.0678089115941109</v>
+        <v>0.009575447818900294</v>
       </c>
       <c r="Q24">
-        <v>55.867934942435</v>
+        <v>0.04085254712733333</v>
       </c>
       <c r="R24">
-        <v>335.20760965461</v>
+        <v>0.3676729241459999</v>
       </c>
       <c r="S24">
-        <v>0.02948414495450827</v>
+        <v>5.206159147039814E-05</v>
       </c>
       <c r="T24">
-        <v>0.03008751490220253</v>
+        <v>0.0001008956523493002</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,7 +1960,7 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E25">
         <v>3</v>
@@ -1969,46 +1969,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>33.754358</v>
+        <v>0.5288903333333334</v>
       </c>
       <c r="H25">
-        <v>101.263074</v>
+        <v>1.586671</v>
       </c>
       <c r="I25">
-        <v>0.3615900150766246</v>
+        <v>0.007424458207958987</v>
       </c>
       <c r="J25">
-        <v>0.4437103353361534</v>
+        <v>0.01053691213795238</v>
       </c>
       <c r="K25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>6.111548333333334</v>
+        <v>1.9269465</v>
       </c>
       <c r="N25">
-        <v>18.334645</v>
+        <v>3.853893</v>
       </c>
       <c r="O25">
-        <v>0.3010860211453351</v>
+        <v>0.1749318220531151</v>
       </c>
       <c r="P25">
-        <v>0.3755748624096281</v>
+        <v>0.1592516649884999</v>
       </c>
       <c r="Q25">
-        <v>206.2913903776367</v>
+        <v>1.0191433767005</v>
       </c>
       <c r="R25">
-        <v>1856.62251339873</v>
+        <v>6.114860260203</v>
       </c>
       <c r="S25">
-        <v>0.1088696989253026</v>
+        <v>0.001298774002075471</v>
       </c>
       <c r="T25">
-        <v>0.1666464481436057</v>
+        <v>0.001678020801806451</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>33.754358</v>
+        <v>0.5288903333333334</v>
       </c>
       <c r="H26">
-        <v>101.263074</v>
+        <v>1.586671</v>
       </c>
       <c r="I26">
-        <v>0.3615900150766246</v>
+        <v>0.007424458207958987</v>
       </c>
       <c r="J26">
-        <v>0.4437103353361534</v>
+        <v>0.01053691213795238</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -2049,28 +2049,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M26">
-        <v>0.026642</v>
+        <v>0.009278333333333333</v>
       </c>
       <c r="N26">
-        <v>0.079926</v>
+        <v>0.027835</v>
       </c>
       <c r="O26">
-        <v>0.001312520712894198</v>
+        <v>0.0008423045246020856</v>
       </c>
       <c r="P26">
-        <v>0.001637239033150188</v>
+        <v>0.001150205803574436</v>
       </c>
       <c r="Q26">
-        <v>0.8992836058359999</v>
+        <v>0.004907220809444444</v>
       </c>
       <c r="R26">
-        <v>8.093552452523999</v>
+        <v>0.044164987285</v>
       </c>
       <c r="S26">
-        <v>0.0004745943843637952</v>
+        <v>6.253654741282947E-06</v>
       </c>
       <c r="T26">
-        <v>0.0007264598804245095</v>
+        <v>1.211961749282675E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.535784</v>
+        <v>0.4370873333333334</v>
       </c>
       <c r="H27">
-        <v>1.607352</v>
+        <v>1.311262</v>
       </c>
       <c r="I27">
-        <v>0.00573952983012784</v>
+        <v>0.006135745796503949</v>
       </c>
       <c r="J27">
-        <v>0.007043028290087628</v>
+        <v>0.008707950472300633</v>
       </c>
       <c r="K27">
         <v>2</v>
@@ -2111,28 +2111,28 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>10.4223555</v>
+        <v>6.9192795</v>
       </c>
       <c r="N27">
-        <v>20.844711</v>
+        <v>13.838559</v>
       </c>
       <c r="O27">
-        <v>0.5134583541362048</v>
+        <v>0.6281451873364243</v>
       </c>
       <c r="P27">
-        <v>0.4269921487868165</v>
+        <v>0.5718408792853329</v>
       </c>
       <c r="Q27">
-        <v>5.584131319212</v>
+        <v>3.024329425243</v>
       </c>
       <c r="R27">
-        <v>33.504787915272</v>
+        <v>18.145976551458</v>
       </c>
       <c r="S27">
-        <v>0.002947009540093092</v>
+        <v>0.003854139192793651</v>
       </c>
       <c r="T27">
-        <v>0.003007317783550854</v>
+        <v>0.004979562054853524</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.535784</v>
+        <v>0.4370873333333334</v>
       </c>
       <c r="H28">
-        <v>1.607352</v>
+        <v>1.311262</v>
       </c>
       <c r="I28">
-        <v>0.00573952983012784</v>
+        <v>0.006135745796503949</v>
       </c>
       <c r="J28">
-        <v>0.007043028290087628</v>
+        <v>0.008707950472300633</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2179,22 +2179,22 @@
         <v>6.248004</v>
       </c>
       <c r="O28">
-        <v>0.1026028409309336</v>
+        <v>0.1890685122662809</v>
       </c>
       <c r="P28">
-        <v>0.1279868381762944</v>
+        <v>0.2581818021036928</v>
       </c>
       <c r="Q28">
-        <v>1.115860191712</v>
+        <v>0.9103078023386667</v>
       </c>
       <c r="R28">
-        <v>10.042741725408</v>
+        <v>8.192770221048001</v>
       </c>
       <c r="S28">
-        <v>0.0005888920661789553</v>
+        <v>0.001160076329389089</v>
       </c>
       <c r="T28">
-        <v>0.0009014149220345089</v>
+        <v>0.00224823434556828</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2208,7 +2208,7 @@
         <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E29">
         <v>3</v>
@@ -2217,46 +2217,46 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.535784</v>
+        <v>0.4370873333333334</v>
       </c>
       <c r="H29">
-        <v>1.607352</v>
+        <v>1.311262</v>
       </c>
       <c r="I29">
-        <v>0.00573952983012784</v>
+        <v>0.006135745796503949</v>
       </c>
       <c r="J29">
-        <v>0.007043028290087628</v>
+        <v>0.008707950472300633</v>
       </c>
       <c r="K29">
         <v>2</v>
       </c>
       <c r="L29">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M29">
-        <v>1.6551325</v>
+        <v>0.07724199999999999</v>
       </c>
       <c r="N29">
-        <v>3.310265</v>
+        <v>0.231726</v>
       </c>
       <c r="O29">
-        <v>0.0815402630746324</v>
+        <v>0.007012173819577614</v>
       </c>
       <c r="P29">
-        <v>0.0678089115941109</v>
+        <v>0.009575447818900294</v>
       </c>
       <c r="Q29">
-        <v>0.8867935113800002</v>
+        <v>0.03376149980133333</v>
       </c>
       <c r="R29">
-        <v>5.32076106828</v>
+        <v>0.303853498212</v>
       </c>
       <c r="S29">
-        <v>0.0004680027722733243</v>
+        <v>4.302491603782839E-05</v>
       </c>
       <c r="T29">
-        <v>0.000477580082677374</v>
+        <v>8.338252535708288E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2270,7 +2270,7 @@
         <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E30">
         <v>3</v>
@@ -2279,46 +2279,46 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.535784</v>
+        <v>0.4370873333333334</v>
       </c>
       <c r="H30">
-        <v>1.607352</v>
+        <v>1.311262</v>
       </c>
       <c r="I30">
-        <v>0.00573952983012784</v>
+        <v>0.006135745796503949</v>
       </c>
       <c r="J30">
-        <v>0.007043028290087628</v>
+        <v>0.008707950472300633</v>
       </c>
       <c r="K30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>6.111548333333334</v>
+        <v>1.9269465</v>
       </c>
       <c r="N30">
-        <v>18.334645</v>
+        <v>3.853893</v>
       </c>
       <c r="O30">
-        <v>0.3010860211453351</v>
+        <v>0.1749318220531151</v>
       </c>
       <c r="P30">
-        <v>0.3755748624096281</v>
+        <v>0.1592516649884999</v>
       </c>
       <c r="Q30">
-        <v>3.274469812226668</v>
+        <v>0.8422439071610002</v>
       </c>
       <c r="R30">
-        <v>29.47022831004001</v>
+        <v>5.053463442966001</v>
       </c>
       <c r="S30">
-        <v>0.001728092199798152</v>
+        <v>0.001073337191837178</v>
       </c>
       <c r="T30">
-        <v>0.002645184380996779</v>
+        <v>0.001386755611351269</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0.535784</v>
+        <v>0.4370873333333334</v>
       </c>
       <c r="H31">
-        <v>1.607352</v>
+        <v>1.311262</v>
       </c>
       <c r="I31">
-        <v>0.00573952983012784</v>
+        <v>0.006135745796503949</v>
       </c>
       <c r="J31">
-        <v>0.007043028290087628</v>
+        <v>0.008707950472300633</v>
       </c>
       <c r="K31">
         <v>1</v>
@@ -2359,28 +2359,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M31">
-        <v>0.026642</v>
+        <v>0.009278333333333333</v>
       </c>
       <c r="N31">
-        <v>0.079926</v>
+        <v>0.027835</v>
       </c>
       <c r="O31">
-        <v>0.001312520712894198</v>
+        <v>0.0008423045246020856</v>
       </c>
       <c r="P31">
-        <v>0.001637239033150188</v>
+        <v>0.001150205803574436</v>
       </c>
       <c r="Q31">
-        <v>0.014274357328</v>
+        <v>0.004055441974444444</v>
       </c>
       <c r="R31">
-        <v>0.128469215952</v>
+        <v>0.03649897777</v>
       </c>
       <c r="S31">
-        <v>7.533251784316908E-06</v>
+        <v>5.168166446203504E-06</v>
       </c>
       <c r="T31">
-        <v>1.153112082811249E-05</v>
+        <v>1.001593517047894E-05</v>
       </c>
     </row>
   </sheetData>
